--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="113">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -111,6 +117,9 @@
   </si>
   <si>
     <t>cognome</t>
+  </si>
+  <si>
+    <t>{evento.trascrizioneNascita.figlioDiIgnoti,=,true}</t>
   </si>
   <si>
     <t>Nome</t>
@@ -400,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -412,6 +421,7 @@
     <col min="4" max="4" width="39.3671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="44.06640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -433,45 +443,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -493,1465 +512,1687 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="114">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,25 +32,28 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Decreto del Tribunale</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>105-ter</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Decreto del Tribunale</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>105-ter</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -513,1686 +516,1686 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
@@ -122,7 +122,7 @@
     <t>cognome</t>
   </si>
   <si>
-    <t>{evento.trascrizioneNascita.figlioDiIgnoti,=,true}</t>
+    <t>evento.trascrizioneNascita.figlioDiIgnoti,=,true</t>
   </si>
   <si>
     <t>Nome</t>
@@ -424,7 +424,7 @@
     <col min="4" max="4" width="39.3671875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="44.06640625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="42.68359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="117">
   <si>
     <t>Sezione</t>
   </si>
@@ -179,6 +179,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -354,6 +360,9 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
 </sst>
 </file>
@@ -412,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1165,19 +1174,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C33" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
@@ -1188,19 +1197,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1211,19 +1220,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1234,19 +1243,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1257,19 +1266,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1280,19 +1289,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1303,19 +1312,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1326,19 +1335,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1349,19 +1358,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1372,19 +1381,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1395,19 +1404,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1418,19 +1427,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1441,19 +1450,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1464,19 +1473,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1487,19 +1496,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1510,19 +1519,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1533,19 +1542,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1556,19 +1565,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1579,19 +1588,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1602,19 +1611,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1625,19 +1634,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1648,19 +1657,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1674,7 +1683,7 @@
         <v>81</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>33</v>
@@ -1683,7 +1692,7 @@
         <v>82</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1697,16 +1706,16 @@
         <v>81</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1717,10 +1726,10 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>33</v>
@@ -1729,7 +1738,7 @@
         <v>84</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1740,19 +1749,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1763,19 +1772,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1786,10 +1795,10 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
@@ -1798,7 +1807,7 @@
         <v>84</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1809,10 +1818,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
@@ -1821,7 +1830,7 @@
         <v>84</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1832,19 +1841,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1855,7 +1864,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>90</v>
@@ -1864,10 +1873,10 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1878,19 +1887,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1901,19 +1910,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1924,19 +1933,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1947,19 +1956,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1970,10 +1979,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>33</v>
@@ -1982,7 +1991,7 @@
         <v>84</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -1993,65 +2002,65 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2062,19 +2071,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2085,19 +2094,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2108,19 +2117,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2131,22 +2140,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>18</v>
@@ -2154,19 +2163,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2177,24 +2186,93 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G77" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
@@ -2261,7 +2261,7 @@
         <v>55</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>98</v>
@@ -2270,7 +2270,7 @@
         <v>116</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>18</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -255,6 +255,36 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -421,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -431,7 +461,7 @@
     <col min="2" max="2" width="32.41796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="39.3671875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="22.68359375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="42.68359375" customWidth="true" bestFit="true"/>
   </cols>
@@ -1197,19 +1227,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1220,19 +1250,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1243,19 +1273,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1266,19 +1296,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1289,19 +1319,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1312,19 +1342,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1335,19 +1365,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1358,19 +1388,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1381,19 +1411,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1404,19 +1434,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1427,19 +1457,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1450,19 +1480,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1473,19 +1503,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1496,19 +1526,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1519,19 +1549,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1542,19 +1572,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1565,19 +1595,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1588,19 +1618,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1611,19 +1641,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1634,19 +1664,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1657,19 +1687,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1680,19 +1710,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1703,19 +1733,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1726,19 +1756,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1749,19 +1779,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1772,19 +1802,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1795,19 +1825,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1818,19 +1848,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1841,19 +1871,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1864,19 +1894,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1887,19 +1917,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1910,19 +1940,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1933,19 +1963,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1956,19 +1986,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1979,19 +2009,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2002,19 +2032,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2025,19 +2055,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2048,231 +2078,553 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>109</v>
+        <v>48</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>113</v>
+        <v>52</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="E80" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F80" s="2" t="s">
+      <c r="C94" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G94" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="129">
   <si>
     <t>Sezione</t>
   </si>
@@ -131,6 +131,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -185,13 +191,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -451,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1342,19 +1348,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C39" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1365,19 +1371,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1388,19 +1394,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1411,19 +1417,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1434,19 +1440,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1457,19 +1463,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1480,19 +1486,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1503,19 +1509,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1526,19 +1532,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1549,19 +1555,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1572,19 +1578,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1595,19 +1601,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1618,19 +1624,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1641,19 +1647,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1664,19 +1670,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1687,19 +1693,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1710,19 +1716,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1733,19 +1739,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1756,19 +1762,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1779,19 +1785,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1802,19 +1808,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1825,19 +1831,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1848,19 +1854,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1871,19 +1877,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1894,19 +1900,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1917,19 +1923,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1940,19 +1946,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1963,19 +1969,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1989,7 +1995,7 @@
         <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>33</v>
@@ -1998,7 +2004,7 @@
         <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2012,16 +2018,16 @@
         <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2032,10 +2038,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>33</v>
@@ -2044,7 +2050,7 @@
         <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2055,19 +2061,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2078,19 +2084,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2101,19 +2107,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2124,10 +2130,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
@@ -2136,7 +2142,7 @@
         <v>96</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2147,7 +2153,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>43</v>
@@ -2156,7 +2162,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>44</v>
@@ -2170,19 +2176,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2193,19 +2199,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2216,19 +2222,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2239,19 +2245,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2262,19 +2268,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2285,10 +2291,10 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>33</v>
@@ -2297,7 +2303,7 @@
         <v>96</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2308,19 +2314,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2331,19 +2337,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2354,19 +2360,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2377,19 +2383,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2400,88 +2406,88 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2492,19 +2498,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2515,19 +2521,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2538,22 +2544,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>18</v>
@@ -2561,19 +2567,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2584,22 +2590,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>18</v>
@@ -2607,24 +2613,93 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G94" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="131">
   <si>
     <t>Sezione</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -457,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1371,19 +1377,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C40" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1394,19 +1400,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1417,19 +1423,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1440,19 +1446,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1463,19 +1469,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1486,19 +1492,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1509,19 +1515,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1532,19 +1538,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1555,19 +1561,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1578,19 +1584,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1601,19 +1607,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1624,19 +1630,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1647,19 +1653,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1670,19 +1676,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1693,19 +1699,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1716,19 +1722,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1739,19 +1745,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1762,19 +1768,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1785,19 +1791,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1808,19 +1814,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1831,19 +1837,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1854,19 +1860,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1877,19 +1883,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1900,19 +1906,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1923,19 +1929,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1946,19 +1952,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1969,19 +1975,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1992,19 +1998,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2015,19 +2021,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2041,7 +2047,7 @@
         <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>33</v>
@@ -2050,7 +2056,7 @@
         <v>96</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2064,16 +2070,16 @@
         <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2084,10 +2090,10 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>33</v>
@@ -2096,7 +2102,7 @@
         <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2107,19 +2113,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2130,19 +2136,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2153,19 +2159,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2176,10 +2182,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
@@ -2188,7 +2194,7 @@
         <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2199,10 +2205,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2211,7 +2217,7 @@
         <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2228,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2245,7 +2251,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>104</v>
@@ -2254,10 +2260,10 @@
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2268,19 +2274,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2291,19 +2297,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2314,19 +2320,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2337,19 +2343,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2360,10 +2366,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>33</v>
@@ -2372,7 +2378,7 @@
         <v>98</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2383,19 +2389,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2406,19 +2412,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2429,19 +2435,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2452,19 +2458,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2475,65 +2481,65 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2544,19 +2550,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2567,19 +2573,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2590,19 +2596,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2613,22 +2619,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>18</v>
@@ -2636,19 +2642,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2659,19 +2665,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>12</v>
@@ -2682,24 +2688,70 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F97" s="2" t="s">
+      <c r="C99" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="133">
   <si>
     <t>Sezione</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -463,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1400,19 +1406,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C41" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1423,19 +1429,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1446,19 +1452,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1469,19 +1475,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1492,19 +1498,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1515,19 +1521,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1538,19 +1544,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1561,19 +1567,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1584,19 +1590,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1607,19 +1613,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1630,19 +1636,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1653,19 +1659,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1676,19 +1682,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1699,19 +1705,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1722,19 +1728,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1745,19 +1751,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1768,19 +1774,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1791,19 +1797,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1814,19 +1820,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1837,19 +1843,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1860,19 +1866,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1883,19 +1889,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1906,19 +1912,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1929,19 +1935,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1952,19 +1958,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1975,19 +1981,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1998,19 +2004,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2021,19 +2027,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2044,19 +2050,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2073,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2093,7 +2099,7 @@
         <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>33</v>
@@ -2102,7 +2108,7 @@
         <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2116,16 +2122,16 @@
         <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2136,10 +2142,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>99</v>
+        <v>32</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>33</v>
@@ -2148,7 +2154,7 @@
         <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2159,19 +2165,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2182,19 +2188,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2205,19 +2211,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2228,10 +2234,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
@@ -2240,7 +2246,7 @@
         <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2251,10 +2257,10 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2263,7 +2269,7 @@
         <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2274,19 +2280,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2297,7 +2303,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>106</v>
@@ -2306,10 +2312,10 @@
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2320,19 +2326,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2343,19 +2349,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2366,19 +2372,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2389,19 +2395,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2412,10 +2418,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>33</v>
@@ -2424,7 +2430,7 @@
         <v>100</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2435,19 +2441,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2458,19 +2464,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2481,19 +2487,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2504,19 +2510,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2527,65 +2533,65 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2596,19 +2602,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2619,19 +2625,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2642,19 +2648,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2665,22 +2671,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>18</v>
@@ -2688,19 +2694,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2711,19 +2717,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>12</v>
@@ -2734,24 +2740,70 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F99" s="2" t="s">
+      <c r="C101" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="G101" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="136">
   <si>
     <t>Sezione</t>
   </si>
@@ -411,6 +411,15 @@
   </si>
   <si>
     <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Dettagli evento</t>
+  </si>
+  <si>
+    <t>Figlio di ignoti</t>
+  </si>
+  <si>
+    <t>figlioDiIgnoti</t>
   </si>
 </sst>
 </file>
@@ -469,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2160,7 +2169,7 @@
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
@@ -2183,7 +2192,7 @@
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75">
@@ -2206,7 +2215,7 @@
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76">
@@ -2229,7 +2238,7 @@
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
@@ -2252,7 +2261,7 @@
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
@@ -2275,7 +2284,7 @@
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
@@ -2298,7 +2307,7 @@
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
@@ -2321,7 +2330,7 @@
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
@@ -2344,7 +2353,7 @@
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82">
@@ -2367,7 +2376,7 @@
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
@@ -2390,7 +2399,7 @@
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
@@ -2413,7 +2422,7 @@
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85">
@@ -2436,7 +2445,7 @@
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
@@ -2459,7 +2468,7 @@
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
@@ -2482,7 +2491,7 @@
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88">
@@ -2505,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -2528,7 +2537,7 @@
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
@@ -2551,7 +2560,7 @@
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
@@ -2574,7 +2583,7 @@
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92">
@@ -2804,6 +2813,29 @@
         <v>12</v>
       </c>
       <c r="G101" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
@@ -2295,7 +2295,7 @@
         <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>102</v>
@@ -2318,7 +2318,7 @@
         <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>102</v>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_001.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="140">
   <si>
     <t>Sezione</t>
   </si>
@@ -141,6 +141,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -478,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1438,19 +1450,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C42" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1461,19 +1473,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1484,19 +1496,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1507,19 +1519,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1530,19 +1542,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1553,19 +1565,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1576,19 +1588,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1599,19 +1611,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1622,19 +1634,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1645,19 +1657,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1668,19 +1680,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1691,19 +1703,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1714,19 +1726,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1737,19 +1749,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1760,19 +1772,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1783,19 +1795,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1806,19 +1818,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1829,19 +1841,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1852,19 +1864,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1875,19 +1887,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1898,19 +1910,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1921,19 +1933,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1944,19 +1956,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1967,19 +1979,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1990,19 +2002,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2013,19 +2025,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2036,19 +2048,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2059,19 +2071,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2082,19 +2094,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2105,19 +2117,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2128,19 +2140,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2151,56 +2163,56 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>33</v>
@@ -2209,53 +2221,53 @@
         <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C76" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2266,19 +2278,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2289,19 +2301,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2312,19 +2324,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2335,19 +2347,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2358,16 +2370,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>48</v>
@@ -2381,19 +2393,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2404,19 +2416,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2427,19 +2439,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2450,19 +2462,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2473,19 +2485,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2496,19 +2508,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2519,19 +2531,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2542,19 +2554,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2565,19 +2577,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2588,19 +2600,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2611,19 +2623,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2634,19 +2646,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2657,19 +2669,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2680,19 +2692,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2703,19 +2715,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2726,22 +2738,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>18</v>
@@ -2749,19 +2761,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2772,22 +2784,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>18</v>
@@ -2795,22 +2807,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>18</v>
@@ -2818,24 +2830,116 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C104" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
+      <c r="E106" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>18</v>
       </c>
     </row>
